--- a/database/industries/palayesh/shebandar/product/quarterly.xlsx
+++ b/database/industries/palayesh/shebandar/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC323C-7346-4FBF-8F5B-341DA1F8C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E5372C-1751-4516-B5D9-5517AC642923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>بنزین موتور</t>
@@ -638,12 +638,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -658,7 +658,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -707,7 +707,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -756,7 +756,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -808,7 +808,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -817,37 +817,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1075962</v>
+        <v>988048</v>
       </c>
       <c r="F10" s="9">
-        <v>988048</v>
+        <v>1137305</v>
       </c>
       <c r="G10" s="9">
-        <v>1137305</v>
+        <v>1154924</v>
       </c>
       <c r="H10" s="9">
-        <v>1154924</v>
+        <v>1175439</v>
       </c>
       <c r="I10" s="9">
-        <v>1175439</v>
+        <v>969415</v>
       </c>
       <c r="J10" s="9">
-        <v>969415</v>
+        <v>1135939</v>
       </c>
       <c r="K10" s="9">
-        <v>1135939</v>
+        <v>1085043</v>
       </c>
       <c r="L10" s="9">
-        <v>1085043</v>
+        <v>1229549</v>
       </c>
       <c r="M10" s="9">
-        <v>1229549</v>
+        <v>1134244</v>
       </c>
       <c r="N10" s="9">
-        <v>1134244</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1116375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -856,37 +856,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>36027</v>
+        <v>44636</v>
       </c>
       <c r="F11" s="11">
-        <v>44636</v>
+        <v>63154</v>
       </c>
       <c r="G11" s="11">
-        <v>63154</v>
+        <v>47085</v>
       </c>
       <c r="H11" s="11">
-        <v>47085</v>
+        <v>44606</v>
       </c>
       <c r="I11" s="11">
-        <v>44606</v>
+        <v>67018</v>
       </c>
       <c r="J11" s="11">
-        <v>67018</v>
+        <v>66112</v>
       </c>
       <c r="K11" s="11">
-        <v>66112</v>
+        <v>43988</v>
       </c>
       <c r="L11" s="11">
-        <v>43988</v>
+        <v>56345</v>
       </c>
       <c r="M11" s="11">
-        <v>56345</v>
+        <v>44758</v>
       </c>
       <c r="N11" s="11">
-        <v>44758</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -895,37 +895,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>574611</v>
+        <v>404321</v>
       </c>
       <c r="F12" s="9">
-        <v>404321</v>
+        <v>422832</v>
       </c>
       <c r="G12" s="9">
-        <v>422832</v>
+        <v>422499</v>
       </c>
       <c r="H12" s="9">
-        <v>422499</v>
+        <v>418410</v>
       </c>
       <c r="I12" s="9">
-        <v>418410</v>
+        <v>333419</v>
       </c>
       <c r="J12" s="9">
-        <v>333419</v>
+        <v>405974</v>
       </c>
       <c r="K12" s="9">
-        <v>405974</v>
+        <v>398756</v>
       </c>
       <c r="L12" s="9">
-        <v>398756</v>
+        <v>401345</v>
       </c>
       <c r="M12" s="9">
-        <v>401345</v>
+        <v>499880</v>
       </c>
       <c r="N12" s="9">
-        <v>499880</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>507187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -934,37 +934,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>704583</v>
+        <v>593949</v>
       </c>
       <c r="F13" s="11">
-        <v>593949</v>
+        <v>824274</v>
       </c>
       <c r="G13" s="11">
-        <v>824274</v>
+        <v>1277352</v>
       </c>
       <c r="H13" s="11">
-        <v>1277352</v>
+        <v>1177374</v>
       </c>
       <c r="I13" s="11">
-        <v>1177374</v>
+        <v>919637</v>
       </c>
       <c r="J13" s="11">
-        <v>919637</v>
+        <v>1194067</v>
       </c>
       <c r="K13" s="11">
-        <v>1194067</v>
+        <v>1258196</v>
       </c>
       <c r="L13" s="11">
-        <v>1258196</v>
+        <v>1200510</v>
       </c>
       <c r="M13" s="11">
-        <v>1200510</v>
+        <v>1141779</v>
       </c>
       <c r="N13" s="11">
-        <v>1141779</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>965882</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -973,37 +973,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>212877</v>
+        <v>266688</v>
       </c>
       <c r="F14" s="9">
-        <v>266688</v>
+        <v>180449</v>
       </c>
       <c r="G14" s="9">
-        <v>180449</v>
+        <v>143467</v>
       </c>
       <c r="H14" s="9">
-        <v>143467</v>
+        <v>176381</v>
       </c>
       <c r="I14" s="9">
-        <v>176381</v>
+        <v>124035</v>
       </c>
       <c r="J14" s="9">
-        <v>124035</v>
+        <v>49856</v>
       </c>
       <c r="K14" s="9">
-        <v>49856</v>
+        <v>126487</v>
       </c>
       <c r="L14" s="9">
-        <v>126487</v>
+        <v>168145</v>
       </c>
       <c r="M14" s="9">
-        <v>168145</v>
+        <v>137910</v>
       </c>
       <c r="N14" s="9">
-        <v>137910</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>210608</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1012,37 +1012,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>79035</v>
+        <v>64580</v>
       </c>
       <c r="F15" s="11">
-        <v>64580</v>
+        <v>83169</v>
       </c>
       <c r="G15" s="11">
-        <v>83169</v>
+        <v>77119</v>
       </c>
       <c r="H15" s="11">
-        <v>77119</v>
+        <v>78348</v>
       </c>
       <c r="I15" s="11">
-        <v>78348</v>
+        <v>68961</v>
       </c>
       <c r="J15" s="11">
-        <v>68961</v>
+        <v>105991</v>
       </c>
       <c r="K15" s="11">
-        <v>105991</v>
+        <v>88143</v>
       </c>
       <c r="L15" s="11">
-        <v>88143</v>
+        <v>86585</v>
       </c>
       <c r="M15" s="11">
-        <v>86585</v>
+        <v>84580</v>
       </c>
       <c r="N15" s="11">
-        <v>84580</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>94651</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1059,29 +1059,29 @@
       <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>23</v>
+      <c r="H16" s="9">
+        <v>6824</v>
       </c>
       <c r="I16" s="9">
-        <v>6824</v>
-      </c>
-      <c r="J16" s="9">
         <v>7108</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>23</v>
+      <c r="J16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="9">
+        <v>10276</v>
       </c>
       <c r="L16" s="9">
-        <v>10276</v>
+        <v>10736</v>
       </c>
       <c r="M16" s="9">
-        <v>10736</v>
+        <v>7406</v>
       </c>
       <c r="N16" s="9">
-        <v>7406</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1090,26 +1090,26 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>11662</v>
+        <v>10215</v>
       </c>
       <c r="F17" s="11">
-        <v>10215</v>
+        <v>10582</v>
       </c>
       <c r="G17" s="11">
-        <v>10582</v>
-      </c>
-      <c r="H17" s="11">
         <v>13255</v>
       </c>
+      <c r="H17" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="I17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="J17" s="11">
         <v>6408</v>
       </c>
+      <c r="K17" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="L17" s="11" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1129,37 +1129,37 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>1593562</v>
+        <v>1101746</v>
       </c>
       <c r="F18" s="9">
-        <v>1101746</v>
+        <v>1384429</v>
       </c>
       <c r="G18" s="9">
-        <v>1384429</v>
+        <v>1635152</v>
       </c>
       <c r="H18" s="9">
-        <v>1635152</v>
+        <v>1687189</v>
       </c>
       <c r="I18" s="9">
-        <v>1687189</v>
+        <v>1261053</v>
       </c>
       <c r="J18" s="9">
-        <v>1261053</v>
+        <v>1689517</v>
       </c>
       <c r="K18" s="9">
-        <v>1689517</v>
+        <v>1743486</v>
       </c>
       <c r="L18" s="9">
-        <v>1743486</v>
+        <v>1767676</v>
       </c>
       <c r="M18" s="9">
-        <v>1767676</v>
+        <v>1616850</v>
       </c>
       <c r="N18" s="9">
-        <v>1616850</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1602219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1168,37 +1168,37 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>8171</v>
+        <v>11950</v>
       </c>
       <c r="F19" s="11">
-        <v>11950</v>
+        <v>47783</v>
       </c>
       <c r="G19" s="11">
-        <v>47783</v>
+        <v>9106</v>
       </c>
       <c r="H19" s="11">
-        <v>9106</v>
+        <v>10946</v>
       </c>
       <c r="I19" s="11">
-        <v>10946</v>
+        <v>13194</v>
       </c>
       <c r="J19" s="11">
-        <v>13194</v>
+        <v>10784</v>
       </c>
       <c r="K19" s="11">
-        <v>10784</v>
+        <v>7923</v>
       </c>
       <c r="L19" s="11">
-        <v>7923</v>
+        <v>10557</v>
       </c>
       <c r="M19" s="11">
-        <v>10557</v>
+        <v>4703</v>
       </c>
       <c r="N19" s="11">
-        <v>4703</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14457</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1221,23 +1221,23 @@
       <c r="I20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>23</v>
+      <c r="J20" s="9">
+        <v>0</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
       </c>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>100030</v>
       </c>
       <c r="M20" s="9">
-        <v>100030</v>
+        <v>4346</v>
       </c>
       <c r="N20" s="9">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1285,37 +1285,37 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F22" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G22" s="9">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H22" s="9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9">
         <v>54</v>
       </c>
       <c r="J22" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K22" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22" s="9">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M22" s="9">
         <v>55</v>
       </c>
       <c r="N22" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1338,11 +1338,11 @@
       <c r="I23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>23</v>
@@ -1354,7 +1354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1377,11 +1377,11 @@
       <c r="I24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>23</v>
@@ -1393,7 +1393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1402,37 +1402,37 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>35765</v>
+        <v>36386</v>
       </c>
       <c r="F25" s="11">
-        <v>36386</v>
+        <v>99367</v>
       </c>
       <c r="G25" s="11">
-        <v>99367</v>
+        <v>7340</v>
       </c>
       <c r="H25" s="11">
-        <v>7340</v>
+        <v>16949</v>
       </c>
       <c r="I25" s="11">
-        <v>16949</v>
+        <v>17591</v>
       </c>
       <c r="J25" s="11">
-        <v>17591</v>
+        <v>6555</v>
       </c>
       <c r="K25" s="11">
-        <v>6555</v>
+        <v>2983</v>
       </c>
       <c r="L25" s="11">
-        <v>2983</v>
+        <v>2850</v>
       </c>
       <c r="M25" s="11">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="N25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1441,37 +1441,37 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>9568</v>
+        <v>9637</v>
       </c>
       <c r="F26" s="9">
-        <v>9637</v>
+        <v>3222</v>
       </c>
       <c r="G26" s="9">
-        <v>3222</v>
+        <v>5543</v>
       </c>
       <c r="H26" s="9">
-        <v>5543</v>
+        <v>4014</v>
       </c>
       <c r="I26" s="9">
-        <v>4014</v>
+        <v>10705</v>
       </c>
       <c r="J26" s="9">
-        <v>10705</v>
+        <v>2103</v>
       </c>
       <c r="K26" s="9">
-        <v>2103</v>
+        <v>2286</v>
       </c>
       <c r="L26" s="9">
-        <v>2286</v>
+        <v>3452</v>
       </c>
       <c r="M26" s="9">
-        <v>3452</v>
+        <v>1841</v>
       </c>
       <c r="N26" s="9">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1480,29 +1480,29 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>101962</v>
+        <v>26771</v>
       </c>
       <c r="F27" s="11">
-        <v>26771</v>
+        <v>4049</v>
       </c>
       <c r="G27" s="11">
-        <v>4049</v>
+        <v>308</v>
       </c>
       <c r="H27" s="11">
-        <v>308</v>
+        <v>30028</v>
       </c>
       <c r="I27" s="11">
-        <v>30028</v>
+        <v>25430</v>
       </c>
       <c r="J27" s="11">
-        <v>25430</v>
+        <v>14916</v>
       </c>
       <c r="K27" s="11">
-        <v>14916</v>
-      </c>
-      <c r="L27" s="11">
         <v>68923</v>
       </c>
+      <c r="L27" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="M27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1524,32 +1524,32 @@
       <c r="F28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>23</v>
+      <c r="G28" s="9">
+        <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>250463</v>
       </c>
       <c r="I28" s="9">
-        <v>250463</v>
+        <v>122688</v>
       </c>
       <c r="J28" s="9">
-        <v>122688</v>
+        <v>107582</v>
       </c>
       <c r="K28" s="9">
-        <v>107582</v>
+        <v>133000</v>
       </c>
       <c r="L28" s="9">
-        <v>133000</v>
+        <v>132754</v>
       </c>
       <c r="M28" s="9">
-        <v>132754</v>
+        <v>100621</v>
       </c>
       <c r="N28" s="9">
-        <v>100621</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112921</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1561,17 +1561,17 @@
       <c r="F29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>23</v>
+      <c r="G29" s="11">
+        <v>0</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>23</v>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
       </c>
       <c r="K29" s="11">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1609,14 +1609,14 @@
       <c r="I30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>23</v>
+      <c r="J30" s="9">
+        <v>0</v>
       </c>
       <c r="K30" s="9">
         <v>0</v>
       </c>
-      <c r="L30" s="9">
-        <v>0</v>
+      <c r="L30" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>23</v>
@@ -1625,7 +1625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
@@ -1648,14 +1648,14 @@
       <c r="I31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>23</v>
+      <c r="J31" s="11">
+        <v>0</v>
       </c>
       <c r="K31" s="11">
         <v>0</v>
       </c>
-      <c r="L31" s="11">
-        <v>0</v>
+      <c r="L31" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>23</v>
@@ -1664,7 +1664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1673,14 +1673,14 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>156723</v>
+        <v>61141</v>
       </c>
       <c r="F32" s="9">
-        <v>61141</v>
-      </c>
-      <c r="G32" s="9">
         <v>69241</v>
       </c>
+      <c r="G32" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H32" s="9" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>40</v>
       </c>
@@ -1726,14 +1726,14 @@
       <c r="I33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>23</v>
+      <c r="J33" s="11">
+        <v>0</v>
       </c>
       <c r="K33" s="11">
         <v>0</v>
       </c>
-      <c r="L33" s="11">
-        <v>0</v>
+      <c r="L33" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>23</v>
@@ -1742,44 +1742,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>4600564</v>
+        <v>3620132</v>
       </c>
       <c r="F34" s="13">
-        <v>3620132</v>
+        <v>4329924</v>
       </c>
       <c r="G34" s="13">
-        <v>4329924</v>
+        <v>4793210</v>
       </c>
       <c r="H34" s="13">
-        <v>4793210</v>
+        <v>5077025</v>
       </c>
       <c r="I34" s="13">
-        <v>5077025</v>
+        <v>3940308</v>
       </c>
       <c r="J34" s="13">
-        <v>3940308</v>
+        <v>4795855</v>
       </c>
       <c r="K34" s="13">
-        <v>4795855</v>
+        <v>4969539</v>
       </c>
       <c r="L34" s="13">
-        <v>4969539</v>
+        <v>5170589</v>
       </c>
       <c r="M34" s="13">
-        <v>5170589</v>
+        <v>4778973</v>
       </c>
       <c r="N34" s="13">
-        <v>4778973</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4724184</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1794,7 +1794,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1809,7 +1809,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1824,7 +1824,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>42</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
@@ -1885,37 +1885,37 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>1295316</v>
+        <v>1057203</v>
       </c>
       <c r="F40" s="9">
-        <v>1057203</v>
+        <v>1187441</v>
       </c>
       <c r="G40" s="9">
-        <v>1187441</v>
+        <v>1224026</v>
       </c>
       <c r="H40" s="9">
-        <v>1224026</v>
+        <v>1131134</v>
       </c>
       <c r="I40" s="9">
-        <v>1131134</v>
+        <v>916193</v>
       </c>
       <c r="J40" s="9">
-        <v>916193</v>
+        <v>956229</v>
       </c>
       <c r="K40" s="9">
-        <v>956229</v>
+        <v>1039430</v>
       </c>
       <c r="L40" s="9">
-        <v>1039430</v>
+        <v>1529057</v>
       </c>
       <c r="M40" s="9">
-        <v>1529057</v>
+        <v>1049977</v>
       </c>
       <c r="N40" s="9">
-        <v>1049977</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1188949</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
@@ -1924,37 +1924,37 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>50920</v>
+        <v>48112</v>
       </c>
       <c r="F41" s="11">
-        <v>48112</v>
+        <v>53301</v>
       </c>
       <c r="G41" s="11">
-        <v>53301</v>
+        <v>48476</v>
       </c>
       <c r="H41" s="11">
-        <v>48476</v>
+        <v>50569</v>
       </c>
       <c r="I41" s="11">
-        <v>50569</v>
+        <v>56514</v>
       </c>
       <c r="J41" s="11">
-        <v>56514</v>
+        <v>64946</v>
       </c>
       <c r="K41" s="11">
-        <v>64946</v>
+        <v>67976</v>
       </c>
       <c r="L41" s="11">
-        <v>67976</v>
+        <v>49117</v>
       </c>
       <c r="M41" s="11">
-        <v>49117</v>
+        <v>62626</v>
       </c>
       <c r="N41" s="11">
-        <v>62626</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51495</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
@@ -1963,37 +1963,37 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>574121</v>
+        <v>415201</v>
       </c>
       <c r="F42" s="9">
-        <v>415201</v>
+        <v>409220</v>
       </c>
       <c r="G42" s="9">
-        <v>409220</v>
+        <v>430183</v>
       </c>
       <c r="H42" s="9">
-        <v>430183</v>
+        <v>412798</v>
       </c>
       <c r="I42" s="9">
-        <v>412798</v>
+        <v>333341</v>
       </c>
       <c r="J42" s="9">
-        <v>333341</v>
+        <v>405876</v>
       </c>
       <c r="K42" s="9">
-        <v>405876</v>
+        <v>400247</v>
       </c>
       <c r="L42" s="9">
-        <v>400247</v>
+        <v>413845</v>
       </c>
       <c r="M42" s="9">
-        <v>413845</v>
+        <v>494024</v>
       </c>
       <c r="N42" s="9">
-        <v>494024</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>510483</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -2002,37 +2002,37 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>947866</v>
+        <v>515067</v>
       </c>
       <c r="F43" s="11">
-        <v>515067</v>
+        <v>1040186</v>
       </c>
       <c r="G43" s="11">
-        <v>1040186</v>
+        <v>1242133</v>
       </c>
       <c r="H43" s="11">
-        <v>1242133</v>
+        <v>1115768</v>
       </c>
       <c r="I43" s="11">
-        <v>1115768</v>
+        <v>642019</v>
       </c>
       <c r="J43" s="11">
-        <v>642019</v>
+        <v>1374748</v>
       </c>
       <c r="K43" s="11">
-        <v>1374748</v>
+        <v>92360</v>
       </c>
       <c r="L43" s="11">
-        <v>92360</v>
+        <v>2118590</v>
       </c>
       <c r="M43" s="11">
-        <v>2118590</v>
+        <v>563567</v>
       </c>
       <c r="N43" s="11">
-        <v>563567</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1833456</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
@@ -2041,37 +2041,37 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>190045</v>
+        <v>276501</v>
       </c>
       <c r="F44" s="9">
-        <v>276501</v>
+        <v>212399</v>
       </c>
       <c r="G44" s="9">
-        <v>212399</v>
+        <v>73114</v>
       </c>
       <c r="H44" s="9">
-        <v>73114</v>
+        <v>87117</v>
       </c>
       <c r="I44" s="9">
-        <v>87117</v>
+        <v>178018</v>
       </c>
       <c r="J44" s="9">
-        <v>178018</v>
+        <v>211141</v>
       </c>
       <c r="K44" s="9">
-        <v>211141</v>
+        <v>51389</v>
       </c>
       <c r="L44" s="9">
-        <v>51389</v>
+        <v>135808</v>
       </c>
       <c r="M44" s="9">
-        <v>135808</v>
+        <v>156078</v>
       </c>
       <c r="N44" s="9">
-        <v>156078</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>251886</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>21</v>
       </c>
@@ -2080,37 +2080,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>82566</v>
+        <v>63466</v>
       </c>
       <c r="F45" s="11">
-        <v>63466</v>
+        <v>78537</v>
       </c>
       <c r="G45" s="11">
-        <v>78537</v>
+        <v>71631</v>
       </c>
       <c r="H45" s="11">
-        <v>71631</v>
+        <v>72098</v>
       </c>
       <c r="I45" s="11">
-        <v>72098</v>
+        <v>81607</v>
       </c>
       <c r="J45" s="11">
-        <v>81607</v>
+        <v>93986</v>
       </c>
       <c r="K45" s="11">
-        <v>93986</v>
+        <v>88033</v>
       </c>
       <c r="L45" s="11">
-        <v>88033</v>
+        <v>95650</v>
       </c>
       <c r="M45" s="11">
-        <v>95650</v>
+        <v>96071</v>
       </c>
       <c r="N45" s="11">
-        <v>96071</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79062</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>22</v>
       </c>
@@ -2127,29 +2127,29 @@
       <c r="G46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>23</v>
+      <c r="H46" s="9">
+        <v>8824</v>
       </c>
       <c r="I46" s="9">
-        <v>8824</v>
-      </c>
-      <c r="J46" s="9">
         <v>10000</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>23</v>
+      <c r="J46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="9">
+        <v>4250</v>
       </c>
       <c r="L46" s="9">
-        <v>4250</v>
+        <v>6315</v>
       </c>
       <c r="M46" s="9">
-        <v>6315</v>
+        <v>13685</v>
       </c>
       <c r="N46" s="9">
-        <v>13685</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>22</v>
       </c>
@@ -2158,26 +2158,26 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>12799</v>
+        <v>2674</v>
       </c>
       <c r="F47" s="11">
-        <v>2674</v>
+        <v>13158</v>
       </c>
       <c r="G47" s="11">
-        <v>13158</v>
-      </c>
-      <c r="H47" s="11">
         <v>9922</v>
       </c>
+      <c r="H47" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="I47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="11">
+      <c r="J47" s="11">
         <v>4750</v>
       </c>
+      <c r="K47" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="L47" s="11" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>25</v>
       </c>
@@ -2197,37 +2197,37 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>1645921</v>
+        <v>1127235</v>
       </c>
       <c r="F48" s="9">
-        <v>1127235</v>
+        <v>1452024</v>
       </c>
       <c r="G48" s="9">
-        <v>1452024</v>
+        <v>1559994</v>
       </c>
       <c r="H48" s="9">
-        <v>1559994</v>
+        <v>1586277</v>
       </c>
       <c r="I48" s="9">
-        <v>1586277</v>
+        <v>1496126</v>
       </c>
       <c r="J48" s="9">
-        <v>1496126</v>
+        <v>1553342</v>
       </c>
       <c r="K48" s="9">
-        <v>1553342</v>
+        <v>1489606</v>
       </c>
       <c r="L48" s="9">
-        <v>1489606</v>
+        <v>1861190</v>
       </c>
       <c r="M48" s="9">
-        <v>1861190</v>
+        <v>1847688</v>
       </c>
       <c r="N48" s="9">
-        <v>1847688</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1599197</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>43</v>
       </c>
@@ -2241,8 +2241,8 @@
       <c r="F49" s="11">
         <v>0</v>
       </c>
-      <c r="G49" s="11">
-        <v>0</v>
+      <c r="G49" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>23</v>
@@ -2266,7 +2266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>26</v>
       </c>
@@ -2275,37 +2275,37 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>8171</v>
+        <v>11950</v>
       </c>
       <c r="F50" s="9">
-        <v>11950</v>
+        <v>13940</v>
       </c>
       <c r="G50" s="9">
-        <v>13940</v>
+        <v>9106</v>
       </c>
       <c r="H50" s="9">
-        <v>9106</v>
+        <v>10946</v>
       </c>
       <c r="I50" s="9">
-        <v>10946</v>
+        <v>13194</v>
       </c>
       <c r="J50" s="9">
-        <v>13194</v>
+        <v>10784</v>
       </c>
       <c r="K50" s="9">
-        <v>10784</v>
+        <v>7923</v>
       </c>
       <c r="L50" s="9">
-        <v>7923</v>
+        <v>10557</v>
       </c>
       <c r="M50" s="9">
-        <v>10557</v>
+        <v>4703</v>
       </c>
       <c r="N50" s="9">
-        <v>4703</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14457</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>27</v>
       </c>
@@ -2328,23 +2328,23 @@
       <c r="I51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>23</v>
+      <c r="J51" s="11">
+        <v>0</v>
       </c>
       <c r="K51" s="11">
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <v>0</v>
+        <v>100030</v>
       </c>
       <c r="M51" s="11">
-        <v>100030</v>
+        <v>4346</v>
       </c>
       <c r="N51" s="11">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16177</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>28</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>29</v>
       </c>
@@ -2392,37 +2392,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F53" s="11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G53" s="11">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H53" s="11">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I53" s="11">
         <v>54</v>
       </c>
       <c r="J53" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K53" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L53" s="11">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M53" s="11">
         <v>55</v>
       </c>
       <c r="N53" s="11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>30</v>
       </c>
@@ -2445,11 +2445,11 @@
       <c r="I54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>23</v>
@@ -2461,7 +2461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>31</v>
       </c>
@@ -2484,11 +2484,11 @@
       <c r="I55" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="11">
-        <v>0</v>
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L55" s="11" t="s">
         <v>23</v>
@@ -2500,7 +2500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
@@ -2509,37 +2509,37 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>35765</v>
+        <v>36386</v>
       </c>
       <c r="F56" s="9">
-        <v>36386</v>
+        <v>17241</v>
       </c>
       <c r="G56" s="9">
-        <v>17241</v>
+        <v>7340</v>
       </c>
       <c r="H56" s="9">
-        <v>7340</v>
+        <v>16949</v>
       </c>
       <c r="I56" s="9">
-        <v>16949</v>
+        <v>17591</v>
       </c>
       <c r="J56" s="9">
-        <v>17591</v>
+        <v>6555</v>
       </c>
       <c r="K56" s="9">
-        <v>6555</v>
+        <v>2983</v>
       </c>
       <c r="L56" s="9">
-        <v>2983</v>
+        <v>2850</v>
       </c>
       <c r="M56" s="9">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="N56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>33</v>
       </c>
@@ -2548,37 +2548,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>9568</v>
+        <v>9637</v>
       </c>
       <c r="F57" s="11">
-        <v>9637</v>
+        <v>3222</v>
       </c>
       <c r="G57" s="11">
-        <v>3222</v>
+        <v>5543</v>
       </c>
       <c r="H57" s="11">
-        <v>5543</v>
+        <v>4014</v>
       </c>
       <c r="I57" s="11">
-        <v>4014</v>
+        <v>10705</v>
       </c>
       <c r="J57" s="11">
-        <v>10705</v>
+        <v>2103</v>
       </c>
       <c r="K57" s="11">
-        <v>2103</v>
+        <v>2286</v>
       </c>
       <c r="L57" s="11">
-        <v>2286</v>
+        <v>3452</v>
       </c>
       <c r="M57" s="11">
-        <v>3452</v>
+        <v>1841</v>
       </c>
       <c r="N57" s="11">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>34</v>
       </c>
@@ -2587,29 +2587,29 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>101926</v>
+        <v>26771</v>
       </c>
       <c r="F58" s="9">
-        <v>26771</v>
+        <v>4085</v>
       </c>
       <c r="G58" s="9">
-        <v>4085</v>
+        <v>308</v>
       </c>
       <c r="H58" s="9">
-        <v>308</v>
+        <v>30028</v>
       </c>
       <c r="I58" s="9">
-        <v>30028</v>
+        <v>25430</v>
       </c>
       <c r="J58" s="9">
-        <v>25430</v>
+        <v>14916</v>
       </c>
       <c r="K58" s="9">
-        <v>14916</v>
-      </c>
-      <c r="L58" s="9">
         <v>68923</v>
       </c>
+      <c r="L58" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="M58" s="9" t="s">
         <v>23</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>35</v>
       </c>
@@ -2626,37 +2626,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>83170</v>
+        <v>61141</v>
       </c>
       <c r="F59" s="11">
-        <v>61141</v>
+        <v>69241</v>
       </c>
       <c r="G59" s="11">
-        <v>69241</v>
+        <v>116019</v>
       </c>
       <c r="H59" s="11">
-        <v>116019</v>
+        <v>134444</v>
       </c>
       <c r="I59" s="11">
-        <v>134444</v>
+        <v>122688</v>
       </c>
       <c r="J59" s="11">
-        <v>122688</v>
+        <v>107582</v>
       </c>
       <c r="K59" s="11">
-        <v>107582</v>
+        <v>133000</v>
       </c>
       <c r="L59" s="11">
-        <v>133000</v>
+        <v>132754</v>
       </c>
       <c r="M59" s="11">
-        <v>132754</v>
+        <v>100621</v>
       </c>
       <c r="N59" s="11">
-        <v>100621</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112921</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>36</v>
       </c>
@@ -2674,11 +2674,11 @@
       <c r="H60" s="9">
         <v>0</v>
       </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>23</v>
+      <c r="I60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0</v>
       </c>
       <c r="K60" s="9">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>37</v>
       </c>
@@ -2716,14 +2716,14 @@
       <c r="I61" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="11" t="s">
-        <v>23</v>
+      <c r="J61" s="11">
+        <v>0</v>
       </c>
       <c r="K61" s="11">
         <v>0</v>
       </c>
-      <c r="L61" s="11">
-        <v>0</v>
+      <c r="L61" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M61" s="11" t="s">
         <v>23</v>
@@ -2732,7 +2732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>38</v>
       </c>
@@ -2755,14 +2755,14 @@
       <c r="I62" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>23</v>
+      <c r="J62" s="9">
+        <v>0</v>
       </c>
       <c r="K62" s="9">
         <v>0</v>
       </c>
-      <c r="L62" s="9">
-        <v>0</v>
+      <c r="L62" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>23</v>
@@ -2771,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>40</v>
       </c>
@@ -2794,14 +2794,14 @@
       <c r="I63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>23</v>
+      <c r="J63" s="11">
+        <v>0</v>
       </c>
       <c r="K63" s="11">
         <v>0</v>
       </c>
-      <c r="L63" s="11">
-        <v>0</v>
+      <c r="L63" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M63" s="11" t="s">
         <v>23</v>
@@ -2810,44 +2810,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>5038210</v>
+        <v>3651408</v>
       </c>
       <c r="F64" s="13">
-        <v>3651408</v>
+        <v>4554063</v>
       </c>
       <c r="G64" s="13">
-        <v>4554063</v>
+        <v>4797855</v>
       </c>
       <c r="H64" s="13">
-        <v>4797855</v>
+        <v>4661020</v>
       </c>
       <c r="I64" s="13">
-        <v>4661020</v>
+        <v>3903480</v>
       </c>
       <c r="J64" s="13">
-        <v>3903480</v>
+        <v>4807009</v>
       </c>
       <c r="K64" s="13">
-        <v>4807009</v>
+        <v>3448455</v>
       </c>
       <c r="L64" s="13">
-        <v>3448455</v>
+        <v>6459270</v>
       </c>
       <c r="M64" s="13">
-        <v>6459270</v>
+        <v>4395282</v>
       </c>
       <c r="N64" s="13">
-        <v>4395282</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5671589</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2862,7 +2862,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2892,7 +2892,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>45</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2944,7 +2944,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>15</v>
       </c>
@@ -2953,37 +2953,37 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>51754568</v>
+        <v>67246300</v>
       </c>
       <c r="F70" s="9">
-        <v>67246300</v>
+        <v>100646466</v>
       </c>
       <c r="G70" s="9">
-        <v>100646466</v>
+        <v>115595883</v>
       </c>
       <c r="H70" s="9">
-        <v>115595883</v>
+        <v>119600482</v>
       </c>
       <c r="I70" s="9">
-        <v>119600482</v>
+        <v>121815468</v>
       </c>
       <c r="J70" s="9">
-        <v>121815468</v>
+        <v>146210013</v>
       </c>
       <c r="K70" s="9">
-        <v>146210013</v>
+        <v>196012294</v>
       </c>
       <c r="L70" s="9">
-        <v>196012294</v>
+        <v>273969581</v>
       </c>
       <c r="M70" s="9">
-        <v>273969581</v>
+        <v>146100243</v>
       </c>
       <c r="N70" s="9">
-        <v>146100243</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>188392869</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>17</v>
       </c>
@@ -2992,37 +2992,37 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>2240579</v>
+        <v>2752821</v>
       </c>
       <c r="F71" s="11">
-        <v>2752821</v>
+        <v>4467207</v>
       </c>
       <c r="G71" s="11">
-        <v>4467207</v>
+        <v>4594090</v>
       </c>
       <c r="H71" s="11">
-        <v>4594090</v>
+        <v>5371693</v>
       </c>
       <c r="I71" s="11">
-        <v>5371693</v>
+        <v>7255316</v>
       </c>
       <c r="J71" s="11">
-        <v>7255316</v>
+        <v>8653471</v>
       </c>
       <c r="K71" s="11">
-        <v>8653471</v>
+        <v>14843732</v>
       </c>
       <c r="L71" s="11">
-        <v>14843732</v>
+        <v>11221812</v>
       </c>
       <c r="M71" s="11">
-        <v>11221812</v>
+        <v>12457815</v>
       </c>
       <c r="N71" s="11">
-        <v>12457815</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9861635</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>18</v>
       </c>
@@ -3031,37 +3031,37 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>18226666</v>
+        <v>18794310</v>
       </c>
       <c r="F72" s="9">
-        <v>18794310</v>
+        <v>27341855</v>
       </c>
       <c r="G72" s="9">
-        <v>27341855</v>
+        <v>29713423</v>
       </c>
       <c r="H72" s="9">
-        <v>29713423</v>
+        <v>27030038</v>
       </c>
       <c r="I72" s="9">
-        <v>27030038</v>
+        <v>30394656</v>
       </c>
       <c r="J72" s="9">
-        <v>30394656</v>
+        <v>39768689</v>
       </c>
       <c r="K72" s="9">
-        <v>39768689</v>
+        <v>42827482</v>
       </c>
       <c r="L72" s="9">
-        <v>42827482</v>
+        <v>37745872</v>
       </c>
       <c r="M72" s="9">
-        <v>37745872</v>
+        <v>51054246</v>
       </c>
       <c r="N72" s="9">
-        <v>51054246</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56917631</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>19</v>
       </c>
@@ -3070,37 +3070,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>32268442</v>
+        <v>27471659</v>
       </c>
       <c r="F73" s="11">
-        <v>27471659</v>
+        <v>83999767</v>
       </c>
       <c r="G73" s="11">
-        <v>83999767</v>
+        <v>95251965</v>
       </c>
       <c r="H73" s="11">
-        <v>95251965</v>
+        <v>97761406</v>
       </c>
       <c r="I73" s="11">
-        <v>97761406</v>
+        <v>64376358</v>
       </c>
       <c r="J73" s="11">
-        <v>64376358</v>
+        <v>146814997</v>
       </c>
       <c r="K73" s="11">
-        <v>146814997</v>
+        <v>14024367</v>
       </c>
       <c r="L73" s="11">
-        <v>14024367</v>
+        <v>258107007</v>
       </c>
       <c r="M73" s="11">
-        <v>258107007</v>
+        <v>27414190</v>
       </c>
       <c r="N73" s="11">
-        <v>27414190</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>160867907</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>20</v>
       </c>
@@ -3109,37 +3109,37 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>8291840</v>
+        <v>15458974</v>
       </c>
       <c r="F74" s="9">
-        <v>15458974</v>
+        <v>15324105</v>
       </c>
       <c r="G74" s="9">
-        <v>15324105</v>
+        <v>6706231</v>
       </c>
       <c r="H74" s="9">
-        <v>6706231</v>
+        <v>10523024</v>
       </c>
       <c r="I74" s="9">
-        <v>10523024</v>
+        <v>20428762</v>
       </c>
       <c r="J74" s="9">
-        <v>20428762</v>
+        <v>31953701</v>
       </c>
       <c r="K74" s="9">
-        <v>31953701</v>
+        <v>11159707</v>
       </c>
       <c r="L74" s="9">
-        <v>11159707</v>
+        <v>28824357</v>
       </c>
       <c r="M74" s="9">
-        <v>28824357</v>
+        <v>30340760</v>
       </c>
       <c r="N74" s="9">
-        <v>30340760</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45275658</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>21</v>
       </c>
@@ -3148,37 +3148,37 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>2958574</v>
+        <v>2493565</v>
       </c>
       <c r="F75" s="11">
-        <v>2493565</v>
+        <v>3863095</v>
       </c>
       <c r="G75" s="11">
-        <v>3863095</v>
+        <v>4378600</v>
       </c>
       <c r="H75" s="11">
-        <v>4378600</v>
+        <v>5992803</v>
       </c>
       <c r="I75" s="11">
-        <v>5992803</v>
+        <v>8204584</v>
       </c>
       <c r="J75" s="11">
-        <v>8204584</v>
+        <v>10169802</v>
       </c>
       <c r="K75" s="11">
-        <v>10169802</v>
+        <v>9852383</v>
       </c>
       <c r="L75" s="11">
-        <v>9852383</v>
+        <v>9068200</v>
       </c>
       <c r="M75" s="11">
-        <v>9068200</v>
+        <v>8686088</v>
       </c>
       <c r="N75" s="11">
-        <v>8686088</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8181908</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>22</v>
       </c>
@@ -3187,37 +3187,37 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>192341</v>
+        <v>93653</v>
       </c>
       <c r="F76" s="9">
-        <v>93653</v>
+        <v>579495</v>
       </c>
       <c r="G76" s="9">
-        <v>579495</v>
+        <v>610621</v>
       </c>
       <c r="H76" s="9">
-        <v>610621</v>
+        <v>553657</v>
       </c>
       <c r="I76" s="9">
-        <v>553657</v>
+        <v>831926</v>
       </c>
       <c r="J76" s="9">
-        <v>831926</v>
+        <v>597577</v>
       </c>
       <c r="K76" s="9">
-        <v>597577</v>
+        <v>771277</v>
       </c>
       <c r="L76" s="9">
-        <v>771277</v>
+        <v>400748</v>
       </c>
       <c r="M76" s="9">
-        <v>400748</v>
+        <v>710317</v>
       </c>
       <c r="N76" s="9">
-        <v>710317</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>715842</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>25</v>
       </c>
@@ -3226,37 +3226,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>80140528</v>
+        <v>84767591</v>
       </c>
       <c r="F77" s="11">
-        <v>84767591</v>
+        <v>132294625</v>
       </c>
       <c r="G77" s="11">
-        <v>132294625</v>
+        <v>143201845</v>
       </c>
       <c r="H77" s="11">
-        <v>143201845</v>
+        <v>166695874</v>
       </c>
       <c r="I77" s="11">
-        <v>166695874</v>
+        <v>190519007</v>
       </c>
       <c r="J77" s="11">
-        <v>190519007</v>
+        <v>249941500</v>
       </c>
       <c r="K77" s="11">
-        <v>249941500</v>
+        <v>338847132</v>
       </c>
       <c r="L77" s="11">
-        <v>338847132</v>
+        <v>413516000</v>
       </c>
       <c r="M77" s="11">
-        <v>413516000</v>
+        <v>373407989</v>
       </c>
       <c r="N77" s="11">
-        <v>373407989</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>286874235</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>43</v>
       </c>
@@ -3270,8 +3270,8 @@
       <c r="F78" s="9">
         <v>0</v>
       </c>
-      <c r="G78" s="9">
-        <v>0</v>
+      <c r="G78" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>23</v>
@@ -3295,7 +3295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>26</v>
       </c>
@@ -3304,37 +3304,37 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>309473</v>
+        <v>779561</v>
       </c>
       <c r="F79" s="11">
-        <v>779561</v>
+        <v>1335039</v>
       </c>
       <c r="G79" s="11">
-        <v>1335039</v>
+        <v>915619</v>
       </c>
       <c r="H79" s="11">
-        <v>915619</v>
+        <v>1145917</v>
       </c>
       <c r="I79" s="11">
-        <v>1145917</v>
+        <v>1676616</v>
       </c>
       <c r="J79" s="11">
-        <v>1676616</v>
+        <v>1395705</v>
       </c>
       <c r="K79" s="11">
-        <v>1395705</v>
+        <v>1484983</v>
       </c>
       <c r="L79" s="11">
-        <v>1484983</v>
+        <v>1833311</v>
       </c>
       <c r="M79" s="11">
-        <v>1833311</v>
+        <v>677954</v>
       </c>
       <c r="N79" s="11">
-        <v>677954</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2082906</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>27</v>
       </c>
@@ -3357,23 +3357,23 @@
       <c r="I80" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="9" t="s">
-        <v>23</v>
+      <c r="J80" s="9">
+        <v>0</v>
       </c>
       <c r="K80" s="9">
         <v>0</v>
       </c>
       <c r="L80" s="9">
-        <v>0</v>
+        <v>12896193</v>
       </c>
       <c r="M80" s="9">
-        <v>12896193</v>
+        <v>1458094</v>
       </c>
       <c r="N80" s="9">
-        <v>1458094</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2174601</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>28</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>29</v>
       </c>
@@ -3421,37 +3421,37 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
-        <v>1542</v>
+        <v>2362</v>
       </c>
       <c r="F82" s="9">
-        <v>2362</v>
+        <v>6556</v>
       </c>
       <c r="G82" s="9">
-        <v>6556</v>
+        <v>3375</v>
       </c>
       <c r="H82" s="9">
-        <v>3375</v>
+        <v>3571</v>
       </c>
       <c r="I82" s="9">
-        <v>3571</v>
+        <v>4688</v>
       </c>
       <c r="J82" s="9">
-        <v>4688</v>
+        <v>7497</v>
       </c>
       <c r="K82" s="9">
-        <v>7497</v>
+        <v>4934</v>
       </c>
       <c r="L82" s="9">
-        <v>4934</v>
+        <v>4942</v>
       </c>
       <c r="M82" s="9">
-        <v>4942</v>
+        <v>4452</v>
       </c>
       <c r="N82" s="9">
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>30</v>
       </c>
@@ -3474,11 +3474,11 @@
       <c r="I83" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" s="11">
-        <v>0</v>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L83" s="11" t="s">
         <v>23</v>
@@ -3490,7 +3490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>31</v>
       </c>
@@ -3513,11 +3513,11 @@
       <c r="I84" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J84" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K84" s="9">
-        <v>0</v>
+      <c r="J84" s="9">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="L84" s="9" t="s">
         <v>23</v>
@@ -3529,7 +3529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3538,37 +3538,37 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>1554605</v>
+        <v>2242415</v>
       </c>
       <c r="F85" s="11">
-        <v>2242415</v>
+        <v>1436430</v>
       </c>
       <c r="G85" s="11">
-        <v>1436430</v>
+        <v>650655</v>
       </c>
       <c r="H85" s="11">
-        <v>650655</v>
+        <v>1657827</v>
       </c>
       <c r="I85" s="11">
-        <v>1657827</v>
+        <v>2002621</v>
       </c>
       <c r="J85" s="11">
-        <v>2002621</v>
+        <v>884176</v>
       </c>
       <c r="K85" s="11">
-        <v>884176</v>
+        <v>470224</v>
       </c>
       <c r="L85" s="11">
-        <v>470224</v>
+        <v>602723</v>
       </c>
       <c r="M85" s="11">
-        <v>602723</v>
+        <v>0</v>
       </c>
       <c r="N85" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>724026</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>33</v>
       </c>
@@ -3577,37 +3577,37 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>246031</v>
+        <v>397102</v>
       </c>
       <c r="F86" s="9">
-        <v>397102</v>
+        <v>206591</v>
       </c>
       <c r="G86" s="9">
-        <v>206591</v>
+        <v>365961</v>
       </c>
       <c r="H86" s="9">
-        <v>365961</v>
+        <v>301553</v>
       </c>
       <c r="I86" s="9">
-        <v>301553</v>
+        <v>944978</v>
       </c>
       <c r="J86" s="9">
-        <v>944978</v>
+        <v>186447</v>
       </c>
       <c r="K86" s="9">
-        <v>186447</v>
+        <v>225472</v>
       </c>
       <c r="L86" s="9">
-        <v>225472</v>
+        <v>408151</v>
       </c>
       <c r="M86" s="9">
-        <v>408151</v>
+        <v>170669</v>
       </c>
       <c r="N86" s="9">
-        <v>170669</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86949</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>34</v>
       </c>
@@ -3616,29 +3616,29 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>3424515</v>
+        <v>1377081</v>
       </c>
       <c r="F87" s="11">
-        <v>1377081</v>
+        <v>340573</v>
       </c>
       <c r="G87" s="11">
-        <v>340573</v>
+        <v>27220</v>
       </c>
       <c r="H87" s="11">
-        <v>27220</v>
+        <v>2751827</v>
       </c>
       <c r="I87" s="11">
-        <v>2751827</v>
+        <v>2616173</v>
       </c>
       <c r="J87" s="11">
-        <v>2616173</v>
+        <v>1875219</v>
       </c>
       <c r="K87" s="11">
-        <v>1875219</v>
-      </c>
-      <c r="L87" s="11">
         <v>9046391</v>
       </c>
+      <c r="L87" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="M87" s="11" t="s">
         <v>23</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>35</v>
       </c>
@@ -3655,37 +3655,37 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <v>3000043</v>
+        <v>3105480</v>
       </c>
       <c r="F88" s="9">
-        <v>3105480</v>
+        <v>5466590</v>
       </c>
       <c r="G88" s="9">
-        <v>5466590</v>
+        <v>9970376</v>
       </c>
       <c r="H88" s="9">
-        <v>9970376</v>
+        <v>11919867</v>
       </c>
       <c r="I88" s="9">
-        <v>11919867</v>
+        <v>12013720</v>
       </c>
       <c r="J88" s="9">
-        <v>12013720</v>
+        <v>11471566</v>
       </c>
       <c r="K88" s="9">
-        <v>11471566</v>
+        <v>20417790</v>
       </c>
       <c r="L88" s="9">
-        <v>20417790</v>
+        <v>19075277</v>
       </c>
       <c r="M88" s="9">
-        <v>19075277</v>
+        <v>10692688</v>
       </c>
       <c r="N88" s="9">
-        <v>10692688</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11510048</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>36</v>
       </c>
@@ -3705,11 +3705,11 @@
       <c r="H89" s="11">
         <v>0</v>
       </c>
-      <c r="I89" s="11">
-        <v>0</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>23</v>
+      <c r="I89" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
       </c>
       <c r="K89" s="11">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>37</v>
       </c>
@@ -3747,14 +3747,14 @@
       <c r="I90" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J90" s="9" t="s">
-        <v>23</v>
+      <c r="J90" s="9">
+        <v>0</v>
       </c>
       <c r="K90" s="9">
         <v>0</v>
       </c>
-      <c r="L90" s="9">
-        <v>0</v>
+      <c r="L90" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>23</v>
@@ -3763,7 +3763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>38</v>
       </c>
@@ -3786,14 +3786,14 @@
       <c r="I91" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>23</v>
+      <c r="J91" s="11">
+        <v>0</v>
       </c>
       <c r="K91" s="11">
         <v>0</v>
       </c>
-      <c r="L91" s="11">
-        <v>0</v>
+      <c r="L91" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M91" s="11" t="s">
         <v>23</v>
@@ -3802,7 +3802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>40</v>
       </c>
@@ -3825,14 +3825,14 @@
       <c r="I92" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J92" s="9" t="s">
-        <v>23</v>
+      <c r="J92" s="9">
+        <v>0</v>
       </c>
       <c r="K92" s="9">
         <v>0</v>
       </c>
-      <c r="L92" s="9">
-        <v>0</v>
+      <c r="L92" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>23</v>
@@ -3841,44 +3841,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>204609747</v>
+        <v>226982874</v>
       </c>
       <c r="F93" s="15">
-        <v>226982874</v>
+        <v>377308394</v>
       </c>
       <c r="G93" s="15">
-        <v>377308394</v>
+        <v>411985864</v>
       </c>
       <c r="H93" s="15">
-        <v>411985864</v>
+        <v>451309539</v>
       </c>
       <c r="I93" s="15">
-        <v>451309539</v>
+        <v>463084873</v>
       </c>
       <c r="J93" s="15">
-        <v>463084873</v>
+        <v>649930360</v>
       </c>
       <c r="K93" s="15">
-        <v>649930360</v>
+        <v>659988168</v>
       </c>
       <c r="L93" s="15">
-        <v>659988168</v>
+        <v>1067674174</v>
       </c>
       <c r="M93" s="15">
-        <v>1067674174</v>
+        <v>663175505</v>
       </c>
       <c r="N93" s="15">
-        <v>663175505</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>773668744</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3893,7 +3893,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3908,7 +3908,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3923,7 +3923,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>47</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3975,7 +3975,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>15</v>
       </c>
@@ -3984,37 +3984,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>39955168</v>
+        <v>63607746</v>
       </c>
       <c r="F99" s="9">
-        <v>63607746</v>
+        <v>84759130</v>
       </c>
       <c r="G99" s="9">
-        <v>84759130</v>
+        <v>94439075</v>
       </c>
       <c r="H99" s="9">
-        <v>94439075</v>
+        <v>105735025</v>
       </c>
       <c r="I99" s="9">
-        <v>105735025</v>
+        <v>132958305</v>
       </c>
       <c r="J99" s="9">
-        <v>132958305</v>
+        <v>152902718</v>
       </c>
       <c r="K99" s="9">
-        <v>152902718</v>
+        <v>188576714</v>
       </c>
       <c r="L99" s="9">
-        <v>188576714</v>
+        <v>179175519</v>
       </c>
       <c r="M99" s="9">
-        <v>179175519</v>
+        <v>139146137</v>
       </c>
       <c r="N99" s="9">
-        <v>139146137</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158453280</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>17</v>
       </c>
@@ -4023,37 +4023,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>44001944</v>
+        <v>57216931</v>
       </c>
       <c r="F100" s="11">
-        <v>57216931</v>
+        <v>83810942</v>
       </c>
       <c r="G100" s="11">
-        <v>83810942</v>
+        <v>94770402</v>
       </c>
       <c r="H100" s="11">
-        <v>94770402</v>
+        <v>106225019</v>
       </c>
       <c r="I100" s="11">
-        <v>106225019</v>
+        <v>128380861</v>
       </c>
       <c r="J100" s="11">
-        <v>128380861</v>
+        <v>133241016</v>
       </c>
       <c r="K100" s="11">
-        <v>133241016</v>
+        <v>218367247</v>
       </c>
       <c r="L100" s="11">
-        <v>218367247</v>
+        <v>228471039</v>
       </c>
       <c r="M100" s="11">
-        <v>228471039</v>
+        <v>198924009</v>
       </c>
       <c r="N100" s="11">
-        <v>198924009</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>191506651</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>18</v>
       </c>
@@ -4062,37 +4062,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>31747081</v>
+        <v>45265570</v>
       </c>
       <c r="F101" s="9">
-        <v>45265570</v>
+        <v>66814562</v>
       </c>
       <c r="G101" s="9">
-        <v>66814562</v>
+        <v>69071588</v>
       </c>
       <c r="H101" s="9">
-        <v>69071588</v>
+        <v>65480060</v>
       </c>
       <c r="I101" s="9">
-        <v>65480060</v>
+        <v>91181871</v>
       </c>
       <c r="J101" s="9">
-        <v>91181871</v>
+        <v>97982362</v>
       </c>
       <c r="K101" s="9">
-        <v>97982362</v>
+        <v>107002631</v>
       </c>
       <c r="L101" s="9">
-        <v>107002631</v>
+        <v>91207752</v>
       </c>
       <c r="M101" s="9">
-        <v>91207752</v>
+        <v>103343655</v>
       </c>
       <c r="N101" s="9">
-        <v>103343655</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111497603</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>19</v>
       </c>
@@ -4101,37 +4101,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>34043253</v>
+        <v>53336192</v>
       </c>
       <c r="F102" s="11">
-        <v>53336192</v>
+        <v>80754564</v>
       </c>
       <c r="G102" s="11">
-        <v>80754564</v>
+        <v>76684192</v>
       </c>
       <c r="H102" s="11">
-        <v>76684192</v>
+        <v>87618041</v>
       </c>
       <c r="I102" s="11">
-        <v>87618041</v>
+        <v>100271733</v>
       </c>
       <c r="J102" s="11">
-        <v>100271733</v>
+        <v>106794116</v>
       </c>
       <c r="K102" s="11">
-        <v>106794116</v>
+        <v>151844597</v>
       </c>
       <c r="L102" s="11">
-        <v>151844597</v>
+        <v>121829616</v>
       </c>
       <c r="M102" s="11">
-        <v>121829616</v>
+        <v>48644065</v>
       </c>
       <c r="N102" s="11">
-        <v>48644065</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>87740260</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>20</v>
       </c>
@@ -4140,37 +4140,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>43630930</v>
+        <v>55909288</v>
       </c>
       <c r="F103" s="9">
-        <v>55909288</v>
+        <v>72147727</v>
       </c>
       <c r="G103" s="9">
-        <v>72147727</v>
+        <v>91722940</v>
       </c>
       <c r="H103" s="9">
-        <v>91722940</v>
+        <v>120791855</v>
       </c>
       <c r="I103" s="9">
-        <v>120791855</v>
+        <v>114756721</v>
       </c>
       <c r="J103" s="9">
-        <v>114756721</v>
+        <v>151338210</v>
       </c>
       <c r="K103" s="9">
-        <v>151338210</v>
+        <v>217161396</v>
       </c>
       <c r="L103" s="9">
-        <v>217161396</v>
+        <v>212243439</v>
       </c>
       <c r="M103" s="9">
-        <v>212243439</v>
+        <v>194394854</v>
       </c>
       <c r="N103" s="9">
-        <v>194394854</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179746623</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>21</v>
       </c>
@@ -4179,37 +4179,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>35832837</v>
+        <v>39289777</v>
       </c>
       <c r="F104" s="11">
-        <v>39289777</v>
+        <v>49188217</v>
       </c>
       <c r="G104" s="11">
-        <v>49188217</v>
+        <v>61127166</v>
       </c>
       <c r="H104" s="11">
-        <v>61127166</v>
+        <v>83120239</v>
       </c>
       <c r="I104" s="11">
-        <v>83120239</v>
+        <v>100537748</v>
       </c>
       <c r="J104" s="11">
-        <v>100537748</v>
+        <v>108205499</v>
       </c>
       <c r="K104" s="11">
-        <v>108205499</v>
+        <v>111916929</v>
       </c>
       <c r="L104" s="11">
-        <v>111916929</v>
+        <v>94806064</v>
       </c>
       <c r="M104" s="11">
-        <v>94806064</v>
+        <v>90413215</v>
       </c>
       <c r="N104" s="11">
-        <v>90413215</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>103487238</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>22</v>
       </c>
@@ -4218,37 +4218,37 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>15027815</v>
+        <v>35023560</v>
       </c>
       <c r="F105" s="9">
-        <v>35023560</v>
+        <v>44041268</v>
       </c>
       <c r="G105" s="9">
-        <v>44041268</v>
+        <v>61542129</v>
       </c>
       <c r="H105" s="9">
-        <v>61542129</v>
+        <v>62744447</v>
       </c>
       <c r="I105" s="9">
-        <v>62744447</v>
+        <v>83192600</v>
       </c>
       <c r="J105" s="9">
-        <v>83192600</v>
+        <v>125805684</v>
       </c>
       <c r="K105" s="9">
-        <v>125805684</v>
+        <v>181476941</v>
       </c>
       <c r="L105" s="9">
-        <v>181476941</v>
+        <v>63459699</v>
       </c>
       <c r="M105" s="9">
-        <v>63459699</v>
+        <v>51904786</v>
       </c>
       <c r="N105" s="9">
-        <v>51904786</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84664932</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>25</v>
       </c>
@@ -4257,37 +4257,37 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>48690386</v>
+        <v>75199640</v>
       </c>
       <c r="F106" s="11">
-        <v>75199640</v>
+        <v>91110495</v>
       </c>
       <c r="G106" s="11">
-        <v>91110495</v>
+        <v>91796408</v>
       </c>
       <c r="H106" s="11">
-        <v>91796408</v>
+        <v>105086233</v>
       </c>
       <c r="I106" s="11">
-        <v>105086233</v>
+        <v>127341552</v>
       </c>
       <c r="J106" s="11">
-        <v>127341552</v>
+        <v>160905647</v>
       </c>
       <c r="K106" s="11">
-        <v>160905647</v>
+        <v>227474333</v>
       </c>
       <c r="L106" s="11">
-        <v>227474333</v>
+        <v>222178284</v>
       </c>
       <c r="M106" s="11">
-        <v>222178284</v>
+        <v>202094720</v>
       </c>
       <c r="N106" s="11">
-        <v>202094720</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179386426</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>43</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>26</v>
       </c>
@@ -4335,37 +4335,37 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>37874556</v>
+        <v>65235230</v>
       </c>
       <c r="F108" s="11">
-        <v>65235230</v>
+        <v>95770373</v>
       </c>
       <c r="G108" s="11">
-        <v>95770373</v>
+        <v>100551175</v>
       </c>
       <c r="H108" s="11">
-        <v>100551175</v>
+        <v>104688197</v>
       </c>
       <c r="I108" s="11">
-        <v>104688197</v>
+        <v>127074125</v>
       </c>
       <c r="J108" s="11">
-        <v>127074125</v>
+        <v>129423683</v>
       </c>
       <c r="K108" s="11">
-        <v>129423683</v>
+        <v>187426859</v>
       </c>
       <c r="L108" s="11">
-        <v>187426859</v>
+        <v>173658331</v>
       </c>
       <c r="M108" s="11">
-        <v>173658331</v>
+        <v>144153519</v>
       </c>
       <c r="N108" s="11">
-        <v>144153519</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>144075949</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>27</v>
       </c>
@@ -4394,17 +4394,17 @@
       <c r="K109" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L109" s="9" t="s">
-        <v>23</v>
+      <c r="L109" s="9">
+        <v>128923253</v>
       </c>
       <c r="M109" s="9">
-        <v>128923253</v>
+        <v>335502531</v>
       </c>
       <c r="N109" s="9">
-        <v>335502531</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>134425481</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>28</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>29</v>
       </c>
@@ -4452,37 +4452,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>27535714</v>
+        <v>36906250</v>
       </c>
       <c r="F111" s="9">
-        <v>36906250</v>
+        <v>96411765</v>
       </c>
       <c r="G111" s="9">
-        <v>96411765</v>
+        <v>56250000</v>
       </c>
       <c r="H111" s="9">
-        <v>56250000</v>
+        <v>66129630</v>
       </c>
       <c r="I111" s="9">
-        <v>66129630</v>
+        <v>86814815</v>
       </c>
       <c r="J111" s="9">
-        <v>86814815</v>
+        <v>147000000</v>
       </c>
       <c r="K111" s="9">
-        <v>147000000</v>
+        <v>100693878</v>
       </c>
       <c r="L111" s="9">
-        <v>100693878</v>
+        <v>89854545</v>
       </c>
       <c r="M111" s="9">
-        <v>89854545</v>
+        <v>80945455</v>
       </c>
       <c r="N111" s="9">
-        <v>80945455</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90321429</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>30</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>31</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
@@ -4569,37 +4569,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>43467217</v>
+        <v>61628511</v>
       </c>
       <c r="F114" s="11">
-        <v>61628511</v>
+        <v>83314773</v>
       </c>
       <c r="G114" s="11">
-        <v>83314773</v>
+        <v>88645095</v>
       </c>
       <c r="H114" s="11">
-        <v>88645095</v>
+        <v>97812673</v>
       </c>
       <c r="I114" s="11">
-        <v>97812673</v>
+        <v>113843500</v>
       </c>
       <c r="J114" s="11">
-        <v>113843500</v>
+        <v>134885736</v>
       </c>
       <c r="K114" s="11">
-        <v>134885736</v>
+        <v>157634596</v>
       </c>
       <c r="L114" s="11">
-        <v>157634596</v>
-      </c>
-      <c r="M114" s="11">
         <v>211481754</v>
       </c>
-      <c r="N114" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M114" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N114" s="11">
+        <v>184653405</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>33</v>
       </c>
@@ -4608,37 +4608,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>25713942</v>
+        <v>41205977</v>
       </c>
       <c r="F115" s="9">
-        <v>41205977</v>
+        <v>64118870</v>
       </c>
       <c r="G115" s="9">
-        <v>64118870</v>
+        <v>66022190</v>
       </c>
       <c r="H115" s="9">
-        <v>66022190</v>
+        <v>75125311</v>
       </c>
       <c r="I115" s="9">
-        <v>75125311</v>
+        <v>88274451</v>
       </c>
       <c r="J115" s="9">
-        <v>88274451</v>
+        <v>88657632</v>
       </c>
       <c r="K115" s="9">
-        <v>88657632</v>
+        <v>98631671</v>
       </c>
       <c r="L115" s="9">
-        <v>98631671</v>
+        <v>118236095</v>
       </c>
       <c r="M115" s="9">
-        <v>118236095</v>
+        <v>92704508</v>
       </c>
       <c r="N115" s="9">
-        <v>92704508</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>78901089</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>34</v>
       </c>
@@ -4647,29 +4647,29 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>33598052</v>
+        <v>51439281</v>
       </c>
       <c r="F116" s="11">
-        <v>51439281</v>
+        <v>83371603</v>
       </c>
       <c r="G116" s="11">
-        <v>83371603</v>
+        <v>88376623</v>
       </c>
       <c r="H116" s="11">
-        <v>88376623</v>
+        <v>91642034</v>
       </c>
       <c r="I116" s="11">
-        <v>91642034</v>
+        <v>102877428</v>
       </c>
       <c r="J116" s="11">
-        <v>102877428</v>
+        <v>125718624</v>
       </c>
       <c r="K116" s="11">
-        <v>125718624</v>
-      </c>
-      <c r="L116" s="11">
         <v>131253587</v>
       </c>
+      <c r="L116" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="M116" s="11" t="s">
         <v>23</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -4686,37 +4686,37 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>36071216</v>
+        <v>50792104</v>
       </c>
       <c r="F117" s="9">
-        <v>50792104</v>
+        <v>78950188</v>
       </c>
       <c r="G117" s="9">
-        <v>78950188</v>
+        <v>85937441</v>
       </c>
       <c r="H117" s="9">
-        <v>85937441</v>
+        <v>88660461</v>
       </c>
       <c r="I117" s="9">
-        <v>88660461</v>
+        <v>97920905</v>
       </c>
       <c r="J117" s="9">
-        <v>97920905</v>
+        <v>106630905</v>
       </c>
       <c r="K117" s="9">
-        <v>106630905</v>
+        <v>153517218</v>
       </c>
       <c r="L117" s="9">
-        <v>153517218</v>
+        <v>143688906</v>
       </c>
       <c r="M117" s="9">
-        <v>143688906</v>
+        <v>106266962</v>
       </c>
       <c r="N117" s="9">
-        <v>106266962</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101930093</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>36</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>38</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>40</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4887,7 +4887,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4902,7 +4902,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4917,7 +4917,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>51</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4969,7 +4969,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>15</v>
       </c>
@@ -4978,37 +4978,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>-49308337</v>
+        <v>-53906743</v>
       </c>
       <c r="F127" s="9">
-        <v>-53906743</v>
+        <v>-86200955</v>
       </c>
       <c r="G127" s="9">
-        <v>-86200955</v>
+        <v>-102059613</v>
       </c>
       <c r="H127" s="9">
-        <v>-102059613</v>
+        <v>-113209286</v>
       </c>
       <c r="I127" s="9">
-        <v>-113209286</v>
+        <v>-109610427</v>
       </c>
       <c r="J127" s="9">
-        <v>-109610427</v>
+        <v>-125459150</v>
       </c>
       <c r="K127" s="9">
-        <v>-125459150</v>
+        <v>-156821469</v>
       </c>
       <c r="L127" s="9">
-        <v>-156821469</v>
+        <v>-234991422</v>
       </c>
       <c r="M127" s="9">
-        <v>-234991422</v>
+        <v>-136457175</v>
       </c>
       <c r="N127" s="9">
-        <v>-136457175</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-159034190</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>17</v>
       </c>
@@ -5017,37 +5017,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>-1954235</v>
+        <v>-2409721</v>
       </c>
       <c r="F128" s="11">
-        <v>-2409721</v>
+        <v>-3417181</v>
       </c>
       <c r="G128" s="11">
-        <v>-3417181</v>
+        <v>-3321019</v>
       </c>
       <c r="H128" s="11">
-        <v>-3321019</v>
+        <v>-4387772</v>
       </c>
       <c r="I128" s="11">
-        <v>-4387772</v>
+        <v>-6294710</v>
       </c>
       <c r="J128" s="11">
-        <v>-6294710</v>
+        <v>-8487195</v>
       </c>
       <c r="K128" s="11">
-        <v>-8487195</v>
+        <v>-9524071</v>
       </c>
       <c r="L128" s="11">
-        <v>-9524071</v>
+        <v>-9236843</v>
       </c>
       <c r="M128" s="11">
-        <v>-9236843</v>
+        <v>-10991635</v>
       </c>
       <c r="N128" s="11">
-        <v>-10991635</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-8977894</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>18</v>
       </c>
@@ -5056,37 +5056,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>-17277993</v>
+        <v>-15055214</v>
       </c>
       <c r="F129" s="9">
-        <v>-15055214</v>
+        <v>-24460130</v>
       </c>
       <c r="G129" s="9">
-        <v>-24460130</v>
+        <v>-26382202</v>
       </c>
       <c r="H129" s="9">
-        <v>-26382202</v>
+        <v>-24657286</v>
       </c>
       <c r="I129" s="9">
-        <v>-24657286</v>
+        <v>-26796226</v>
       </c>
       <c r="J129" s="9">
-        <v>-26796226</v>
+        <v>-33453256</v>
       </c>
       <c r="K129" s="9">
-        <v>-33453256</v>
+        <v>-35469419</v>
       </c>
       <c r="L129" s="9">
-        <v>-35469419</v>
+        <v>-34711389</v>
       </c>
       <c r="M129" s="9">
-        <v>-34711389</v>
+        <v>-46506947</v>
       </c>
       <c r="N129" s="9">
-        <v>-46506947</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-49216578</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>19</v>
       </c>
@@ -5095,37 +5095,37 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>-28088051</v>
+        <v>-18748301</v>
       </c>
       <c r="F130" s="11">
-        <v>-18748301</v>
+        <v>-65426556</v>
       </c>
       <c r="G130" s="11">
-        <v>-65426556</v>
+        <v>-80103105</v>
       </c>
       <c r="H130" s="11">
-        <v>-80103105</v>
+        <v>-87185093</v>
       </c>
       <c r="I130" s="11">
-        <v>-87185093</v>
+        <v>-57026159</v>
       </c>
       <c r="J130" s="11">
-        <v>-57026159</v>
+        <v>-124789096</v>
       </c>
       <c r="K130" s="11">
-        <v>-124789096</v>
+        <v>-10143294</v>
       </c>
       <c r="L130" s="11">
-        <v>-10143294</v>
+        <v>-224561569</v>
       </c>
       <c r="M130" s="11">
-        <v>-224561569</v>
+        <v>-42496071</v>
       </c>
       <c r="N130" s="11">
-        <v>-42496071</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-168516171</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>20</v>
       </c>
@@ -5134,37 +5134,37 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>-7739560</v>
+        <v>-12140726</v>
       </c>
       <c r="F131" s="9">
-        <v>-12140726</v>
+        <v>-12989008</v>
       </c>
       <c r="G131" s="9">
-        <v>-12989008</v>
+        <v>-4354567</v>
       </c>
       <c r="H131" s="9">
-        <v>-4354567</v>
+        <v>-6927642</v>
       </c>
       <c r="I131" s="9">
-        <v>-6927642</v>
+        <v>-15161097</v>
       </c>
       <c r="J131" s="9">
-        <v>-15161097</v>
+        <v>-20281153</v>
       </c>
       <c r="K131" s="9">
-        <v>-20281153</v>
+        <v>-6243892</v>
       </c>
       <c r="L131" s="9">
-        <v>-6243892</v>
+        <v>-20757709</v>
       </c>
       <c r="M131" s="9">
-        <v>-20757709</v>
+        <v>-25151812</v>
       </c>
       <c r="N131" s="9">
-        <v>-25151812</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-39575679</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>21</v>
       </c>
@@ -5173,37 +5173,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>-2315512</v>
+        <v>-1959522</v>
       </c>
       <c r="F132" s="11">
-        <v>-1959522</v>
+        <v>-3024379</v>
       </c>
       <c r="G132" s="11">
-        <v>-3024379</v>
+        <v>-3728749</v>
       </c>
       <c r="H132" s="11">
-        <v>-3728749</v>
+        <v>-5364241</v>
       </c>
       <c r="I132" s="11">
-        <v>-5364241</v>
+        <v>-6972913</v>
       </c>
       <c r="J132" s="11">
-        <v>-6972913</v>
+        <v>-8641864</v>
       </c>
       <c r="K132" s="11">
-        <v>-8641864</v>
+        <v>-7924021</v>
       </c>
       <c r="L132" s="11">
-        <v>-7924021</v>
+        <v>-8304055</v>
       </c>
       <c r="M132" s="11">
-        <v>-8304055</v>
+        <v>-8070601</v>
       </c>
       <c r="N132" s="11">
-        <v>-8070601</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-7008654</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>22</v>
       </c>
@@ -5212,37 +5212,37 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>-160325</v>
+        <v>-102713</v>
       </c>
       <c r="F133" s="9">
-        <v>-102713</v>
+        <v>-443150</v>
       </c>
       <c r="G133" s="9">
-        <v>-443150</v>
+        <v>-432541</v>
       </c>
       <c r="H133" s="9">
-        <v>-432541</v>
+        <v>-446532</v>
       </c>
       <c r="I133" s="9">
-        <v>-446532</v>
+        <v>-629080</v>
       </c>
       <c r="J133" s="9">
-        <v>-629080</v>
+        <v>-510409</v>
       </c>
       <c r="K133" s="9">
-        <v>-510409</v>
+        <v>-399173</v>
       </c>
       <c r="L133" s="9">
-        <v>-399173</v>
+        <v>-573936</v>
       </c>
       <c r="M133" s="9">
-        <v>-573936</v>
+        <v>-1106703</v>
       </c>
       <c r="N133" s="9">
-        <v>-1106703</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-545974</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>25</v>
       </c>
@@ -5251,37 +5251,37 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>-72706423</v>
+        <v>-69682262</v>
       </c>
       <c r="F134" s="11">
-        <v>-69682262</v>
+        <v>-109052475</v>
       </c>
       <c r="G134" s="11">
-        <v>-109052475</v>
+        <v>-125380446</v>
       </c>
       <c r="H134" s="11">
-        <v>-125380446</v>
+        <v>-150888039</v>
       </c>
       <c r="I134" s="11">
-        <v>-150888039</v>
+        <v>-167172473</v>
       </c>
       <c r="J134" s="11">
-        <v>-167172473</v>
+        <v>-212473256</v>
       </c>
       <c r="K134" s="11">
-        <v>-212473256</v>
+        <v>-265325794</v>
       </c>
       <c r="L134" s="11">
-        <v>-265325794</v>
+        <v>-364598555</v>
       </c>
       <c r="M134" s="11">
-        <v>-364598555</v>
+        <v>-344534528</v>
       </c>
       <c r="N134" s="11">
-        <v>-344534528</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-248261076</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>43</v>
       </c>
@@ -5295,8 +5295,8 @@
       <c r="F135" s="9">
         <v>0</v>
       </c>
-      <c r="G135" s="9">
-        <v>0</v>
+      <c r="G135" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>23</v>
@@ -5320,7 +5320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>26</v>
       </c>
@@ -5329,37 +5329,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>-281246</v>
+        <v>-632285</v>
       </c>
       <c r="F136" s="11">
-        <v>-632285</v>
+        <v>-1189493</v>
       </c>
       <c r="G136" s="11">
-        <v>-1189493</v>
+        <v>-831137</v>
       </c>
       <c r="H136" s="11">
-        <v>-831137</v>
+        <v>-1044638</v>
       </c>
       <c r="I136" s="11">
-        <v>-1044638</v>
+        <v>-1487642</v>
       </c>
       <c r="J136" s="11">
-        <v>-1487642</v>
+        <v>-1179161</v>
       </c>
       <c r="K136" s="11">
-        <v>-1179161</v>
+        <v>-1244113</v>
       </c>
       <c r="L136" s="11">
-        <v>-1244113</v>
+        <v>-1646150</v>
       </c>
       <c r="M136" s="11">
-        <v>-1646150</v>
+        <v>-653023</v>
       </c>
       <c r="N136" s="11">
-        <v>-653023</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1807905</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>27</v>
       </c>
@@ -5382,23 +5382,23 @@
       <c r="I137" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J137" s="9" t="s">
-        <v>23</v>
+      <c r="J137" s="9">
+        <v>0</v>
       </c>
       <c r="K137" s="9">
         <v>0</v>
       </c>
       <c r="L137" s="9">
-        <v>0</v>
+        <v>-10877216</v>
       </c>
       <c r="M137" s="9">
-        <v>-10877216</v>
+        <v>-1488250</v>
       </c>
       <c r="N137" s="9">
-        <v>-1488250</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2177440</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>29</v>
       </c>
@@ -5407,37 +5407,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>-1446</v>
+        <v>-2054</v>
       </c>
       <c r="F138" s="11">
-        <v>-2054</v>
+        <v>-3994</v>
       </c>
       <c r="G138" s="11">
-        <v>-3994</v>
+        <v>-3060</v>
       </c>
       <c r="H138" s="11">
-        <v>-3060</v>
+        <v>-3293</v>
       </c>
       <c r="I138" s="11">
-        <v>-3293</v>
+        <v>-4207</v>
       </c>
       <c r="J138" s="11">
-        <v>-4207</v>
+        <v>-4117</v>
       </c>
       <c r="K138" s="11">
-        <v>-4117</v>
+        <v>-4132</v>
       </c>
       <c r="L138" s="11">
-        <v>-4132</v>
+        <v>-4474</v>
       </c>
       <c r="M138" s="11">
-        <v>-4474</v>
+        <v>-4076</v>
       </c>
       <c r="N138" s="11">
-        <v>-4076</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2106</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>30</v>
       </c>
@@ -5460,11 +5460,11 @@
       <c r="I139" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J139" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K139" s="9">
-        <v>0</v>
+      <c r="J139" s="9">
+        <v>0</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="L139" s="9" t="s">
         <v>23</v>
@@ -5476,7 +5476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>31</v>
       </c>
@@ -5499,11 +5499,11 @@
       <c r="I140" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J140" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K140" s="11">
-        <v>0</v>
+      <c r="J140" s="11">
+        <v>0</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L140" s="11" t="s">
         <v>23</v>
@@ -5515,7 +5515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>32</v>
       </c>
@@ -5524,37 +5524,37 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>-1496204</v>
+        <v>-1918352</v>
       </c>
       <c r="F141" s="9">
-        <v>-1918352</v>
+        <v>-1199298</v>
       </c>
       <c r="G141" s="9">
-        <v>-1199298</v>
+        <v>-590442</v>
       </c>
       <c r="H141" s="9">
-        <v>-590442</v>
+        <v>-1509647</v>
       </c>
       <c r="I141" s="9">
-        <v>-1509647</v>
+        <v>-1797889</v>
       </c>
       <c r="J141" s="9">
-        <v>-1797889</v>
+        <v>-716903</v>
       </c>
       <c r="K141" s="9">
-        <v>-716903</v>
+        <v>-394008</v>
       </c>
       <c r="L141" s="9">
-        <v>-394008</v>
+        <v>-540719</v>
       </c>
       <c r="M141" s="9">
-        <v>-540719</v>
+        <v>-16792</v>
       </c>
       <c r="N141" s="9">
-        <v>-16792</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-630488</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>33</v>
       </c>
@@ -5563,37 +5563,37 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>-221374</v>
+        <v>-251746</v>
       </c>
       <c r="F142" s="11">
-        <v>-251746</v>
+        <v>-176825</v>
       </c>
       <c r="G142" s="11">
-        <v>-176825</v>
+        <v>-332465</v>
       </c>
       <c r="H142" s="11">
-        <v>-332465</v>
+        <v>-275134</v>
       </c>
       <c r="I142" s="11">
-        <v>-275134</v>
+        <v>-853114</v>
       </c>
       <c r="J142" s="11">
-        <v>-853114</v>
+        <v>-139898</v>
       </c>
       <c r="K142" s="11">
-        <v>-139898</v>
+        <v>-212486</v>
       </c>
       <c r="L142" s="11">
-        <v>-212486</v>
+        <v>-341470</v>
       </c>
       <c r="M142" s="11">
-        <v>-341470</v>
+        <v>-161298</v>
       </c>
       <c r="N142" s="11">
-        <v>-161298</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23269</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>34</v>
       </c>
@@ -5602,29 +5602,29 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>-3280689</v>
+        <v>-1100877</v>
       </c>
       <c r="F143" s="9">
-        <v>-1100877</v>
+        <v>-33825</v>
       </c>
       <c r="G143" s="9">
-        <v>-33825</v>
+        <v>-24742</v>
       </c>
       <c r="H143" s="9">
-        <v>-24742</v>
+        <v>-2508746</v>
       </c>
       <c r="I143" s="9">
-        <v>-2508746</v>
+        <v>-2341634</v>
       </c>
       <c r="J143" s="9">
-        <v>-2341634</v>
+        <v>-1578071</v>
       </c>
       <c r="K143" s="9">
-        <v>-1578071</v>
-      </c>
-      <c r="L143" s="9">
         <v>-7600524</v>
       </c>
+      <c r="L143" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="M143" s="9" t="s">
         <v>23</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>35</v>
       </c>
@@ -5641,37 +5641,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>-2860579</v>
+        <v>-2461404</v>
       </c>
       <c r="F144" s="11">
-        <v>-2461404</v>
+        <v>-4751709</v>
       </c>
       <c r="G144" s="11">
-        <v>-4751709</v>
+        <v>-9049082</v>
       </c>
       <c r="H144" s="11">
-        <v>-9049082</v>
+        <v>-10866575</v>
       </c>
       <c r="I144" s="11">
-        <v>-10866575</v>
+        <v>-10616330</v>
       </c>
       <c r="J144" s="11">
-        <v>-10616330</v>
+        <v>-9641561</v>
       </c>
       <c r="K144" s="11">
-        <v>-9641561</v>
+        <v>-17104329</v>
       </c>
       <c r="L144" s="11">
-        <v>-17104329</v>
+        <v>-17310310</v>
       </c>
       <c r="M144" s="11">
-        <v>-17310310</v>
+        <v>-10099658</v>
       </c>
       <c r="N144" s="11">
-        <v>-10099658</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9809178</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>36</v>
       </c>
@@ -5691,11 +5691,11 @@
       <c r="H145" s="9">
         <v>0</v>
       </c>
-      <c r="I145" s="9">
-        <v>0</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>23</v>
+      <c r="I145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J145" s="9">
+        <v>0</v>
       </c>
       <c r="K145" s="9">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>37</v>
       </c>
@@ -5733,14 +5733,14 @@
       <c r="I146" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J146" s="11" t="s">
-        <v>23</v>
+      <c r="J146" s="11">
+        <v>0</v>
       </c>
       <c r="K146" s="11">
         <v>0</v>
       </c>
-      <c r="L146" s="11">
-        <v>0</v>
+      <c r="L146" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M146" s="11" t="s">
         <v>23</v>
@@ -5749,7 +5749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>38</v>
       </c>
@@ -5772,14 +5772,14 @@
       <c r="I147" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J147" s="9" t="s">
-        <v>23</v>
+      <c r="J147" s="9">
+        <v>0</v>
       </c>
       <c r="K147" s="9">
         <v>0</v>
       </c>
-      <c r="L147" s="9">
-        <v>0</v>
+      <c r="L147" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="M147" s="9" t="s">
         <v>23</v>
@@ -5788,7 +5788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>40</v>
       </c>
@@ -5811,14 +5811,14 @@
       <c r="I148" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J148" s="11" t="s">
-        <v>23</v>
+      <c r="J148" s="11">
+        <v>0</v>
       </c>
       <c r="K148" s="11">
         <v>0</v>
       </c>
-      <c r="L148" s="11">
-        <v>0</v>
+      <c r="L148" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M148" s="11" t="s">
         <v>23</v>
@@ -5827,44 +5827,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13">
-        <v>-187691974</v>
+        <v>-180371920</v>
       </c>
       <c r="F149" s="13">
-        <v>-180371920</v>
+        <v>-312368978</v>
       </c>
       <c r="G149" s="13">
-        <v>-312368978</v>
+        <v>-356593170</v>
       </c>
       <c r="H149" s="13">
-        <v>-356593170</v>
+        <v>-409273924</v>
       </c>
       <c r="I149" s="13">
-        <v>-409273924</v>
+        <v>-406763901</v>
       </c>
       <c r="J149" s="13">
-        <v>-406763901</v>
+        <v>-547355090</v>
       </c>
       <c r="K149" s="13">
-        <v>-547355090</v>
+        <v>-518410725</v>
       </c>
       <c r="L149" s="13">
-        <v>-518410725</v>
+        <v>-928455817</v>
       </c>
       <c r="M149" s="13">
-        <v>-928455817</v>
+        <v>-627738569</v>
       </c>
       <c r="N149" s="13">
-        <v>-627738569</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-695540064</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5879,7 +5879,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5894,7 +5894,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5909,7 +5909,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>52</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5961,7 +5961,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>15</v>
       </c>
@@ -5970,37 +5970,37 @@
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>2446231</v>
+        <v>13339557</v>
       </c>
       <c r="F155" s="9">
-        <v>13339557</v>
+        <v>14445511</v>
       </c>
       <c r="G155" s="9">
-        <v>14445511</v>
+        <v>13536270</v>
       </c>
       <c r="H155" s="9">
-        <v>13536270</v>
+        <v>6391196</v>
       </c>
       <c r="I155" s="9">
-        <v>6391196</v>
+        <v>12205041</v>
       </c>
       <c r="J155" s="9">
-        <v>12205041</v>
+        <v>20750863</v>
       </c>
       <c r="K155" s="9">
-        <v>20750863</v>
+        <v>39190825</v>
       </c>
       <c r="L155" s="9">
-        <v>39190825</v>
+        <v>38978159</v>
       </c>
       <c r="M155" s="9">
-        <v>38978159</v>
+        <v>9643068</v>
       </c>
       <c r="N155" s="9">
-        <v>9643068</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29358679</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>17</v>
       </c>
@@ -6009,37 +6009,37 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>286344</v>
+        <v>343100</v>
       </c>
       <c r="F156" s="11">
-        <v>343100</v>
+        <v>1050026</v>
       </c>
       <c r="G156" s="11">
-        <v>1050026</v>
+        <v>1273071</v>
       </c>
       <c r="H156" s="11">
-        <v>1273071</v>
+        <v>983921</v>
       </c>
       <c r="I156" s="11">
-        <v>983921</v>
+        <v>960606</v>
       </c>
       <c r="J156" s="11">
-        <v>960606</v>
+        <v>166276</v>
       </c>
       <c r="K156" s="11">
-        <v>166276</v>
+        <v>5319661</v>
       </c>
       <c r="L156" s="11">
-        <v>5319661</v>
+        <v>1984969</v>
       </c>
       <c r="M156" s="11">
-        <v>1984969</v>
+        <v>1466180</v>
       </c>
       <c r="N156" s="11">
-        <v>1466180</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>883741</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>18</v>
       </c>
@@ -6048,37 +6048,37 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>948673</v>
+        <v>3739096</v>
       </c>
       <c r="F157" s="9">
-        <v>3739096</v>
+        <v>2881725</v>
       </c>
       <c r="G157" s="9">
-        <v>2881725</v>
+        <v>3331221</v>
       </c>
       <c r="H157" s="9">
-        <v>3331221</v>
+        <v>2372752</v>
       </c>
       <c r="I157" s="9">
-        <v>2372752</v>
+        <v>3598430</v>
       </c>
       <c r="J157" s="9">
-        <v>3598430</v>
+        <v>6315433</v>
       </c>
       <c r="K157" s="9">
-        <v>6315433</v>
+        <v>7358063</v>
       </c>
       <c r="L157" s="9">
-        <v>7358063</v>
+        <v>3034483</v>
       </c>
       <c r="M157" s="9">
-        <v>3034483</v>
+        <v>4547299</v>
       </c>
       <c r="N157" s="9">
-        <v>4547299</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7701053</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>19</v>
       </c>
@@ -6087,37 +6087,37 @@
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>4180391</v>
+        <v>8723358</v>
       </c>
       <c r="F158" s="11">
-        <v>8723358</v>
+        <v>18573211</v>
       </c>
       <c r="G158" s="11">
-        <v>18573211</v>
+        <v>15148860</v>
       </c>
       <c r="H158" s="11">
-        <v>15148860</v>
+        <v>10576313</v>
       </c>
       <c r="I158" s="11">
-        <v>10576313</v>
+        <v>7350199</v>
       </c>
       <c r="J158" s="11">
-        <v>7350199</v>
+        <v>22025901</v>
       </c>
       <c r="K158" s="11">
-        <v>22025901</v>
+        <v>3881073</v>
       </c>
       <c r="L158" s="11">
-        <v>3881073</v>
+        <v>33545438</v>
       </c>
       <c r="M158" s="11">
-        <v>33545438</v>
+        <v>-15081881</v>
       </c>
       <c r="N158" s="11">
-        <v>-15081881</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-7648264</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>20</v>
       </c>
@@ -6126,37 +6126,37 @@
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>552280</v>
+        <v>3318248</v>
       </c>
       <c r="F159" s="9">
-        <v>3318248</v>
+        <v>2335097</v>
       </c>
       <c r="G159" s="9">
-        <v>2335097</v>
+        <v>2351664</v>
       </c>
       <c r="H159" s="9">
-        <v>2351664</v>
+        <v>3595382</v>
       </c>
       <c r="I159" s="9">
-        <v>3595382</v>
+        <v>5267665</v>
       </c>
       <c r="J159" s="9">
-        <v>5267665</v>
+        <v>11672548</v>
       </c>
       <c r="K159" s="9">
-        <v>11672548</v>
+        <v>4915815</v>
       </c>
       <c r="L159" s="9">
-        <v>4915815</v>
+        <v>8066648</v>
       </c>
       <c r="M159" s="9">
-        <v>8066648</v>
+        <v>5188948</v>
       </c>
       <c r="N159" s="9">
-        <v>5188948</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5699979</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>21</v>
       </c>
@@ -6165,37 +6165,37 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>643062</v>
+        <v>534043</v>
       </c>
       <c r="F160" s="11">
-        <v>534043</v>
+        <v>838716</v>
       </c>
       <c r="G160" s="11">
-        <v>838716</v>
+        <v>649851</v>
       </c>
       <c r="H160" s="11">
-        <v>649851</v>
+        <v>628562</v>
       </c>
       <c r="I160" s="11">
-        <v>628562</v>
+        <v>1231671</v>
       </c>
       <c r="J160" s="11">
-        <v>1231671</v>
+        <v>1527938</v>
       </c>
       <c r="K160" s="11">
-        <v>1527938</v>
+        <v>1928362</v>
       </c>
       <c r="L160" s="11">
-        <v>1928362</v>
+        <v>764145</v>
       </c>
       <c r="M160" s="11">
-        <v>764145</v>
+        <v>615487</v>
       </c>
       <c r="N160" s="11">
-        <v>615487</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1173254</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>22</v>
       </c>
@@ -6204,37 +6204,37 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>32016</v>
+        <v>-9060</v>
       </c>
       <c r="F161" s="9">
-        <v>-9060</v>
+        <v>136345</v>
       </c>
       <c r="G161" s="9">
-        <v>136345</v>
+        <v>178080</v>
       </c>
       <c r="H161" s="9">
-        <v>178080</v>
+        <v>107125</v>
       </c>
       <c r="I161" s="9">
-        <v>107125</v>
+        <v>202846</v>
       </c>
       <c r="J161" s="9">
-        <v>202846</v>
+        <v>87168</v>
       </c>
       <c r="K161" s="9">
-        <v>87168</v>
+        <v>372104</v>
       </c>
       <c r="L161" s="9">
-        <v>372104</v>
+        <v>-173188</v>
       </c>
       <c r="M161" s="9">
-        <v>-173188</v>
+        <v>-396386</v>
       </c>
       <c r="N161" s="9">
-        <v>-396386</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>169868</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>25</v>
       </c>
@@ -6243,37 +6243,37 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>7434105</v>
+        <v>15085329</v>
       </c>
       <c r="F162" s="11">
-        <v>15085329</v>
+        <v>23242150</v>
       </c>
       <c r="G162" s="11">
-        <v>23242150</v>
+        <v>17821399</v>
       </c>
       <c r="H162" s="11">
-        <v>17821399</v>
+        <v>15807835</v>
       </c>
       <c r="I162" s="11">
-        <v>15807835</v>
+        <v>23346534</v>
       </c>
       <c r="J162" s="11">
-        <v>23346534</v>
+        <v>37468244</v>
       </c>
       <c r="K162" s="11">
-        <v>37468244</v>
+        <v>73521338</v>
       </c>
       <c r="L162" s="11">
-        <v>73521338</v>
+        <v>48917445</v>
       </c>
       <c r="M162" s="11">
-        <v>48917445</v>
+        <v>28873461</v>
       </c>
       <c r="N162" s="11">
-        <v>28873461</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38613159</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>43</v>
       </c>
@@ -6287,8 +6287,8 @@
       <c r="F163" s="9">
         <v>0</v>
       </c>
-      <c r="G163" s="9">
-        <v>0</v>
+      <c r="G163" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>23</v>
@@ -6312,7 +6312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>26</v>
       </c>
@@ -6321,37 +6321,37 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>28227</v>
+        <v>147276</v>
       </c>
       <c r="F164" s="11">
-        <v>147276</v>
+        <v>145546</v>
       </c>
       <c r="G164" s="11">
-        <v>145546</v>
+        <v>84482</v>
       </c>
       <c r="H164" s="11">
-        <v>84482</v>
+        <v>101279</v>
       </c>
       <c r="I164" s="11">
-        <v>101279</v>
+        <v>188974</v>
       </c>
       <c r="J164" s="11">
-        <v>188974</v>
+        <v>216544</v>
       </c>
       <c r="K164" s="11">
-        <v>216544</v>
+        <v>240870</v>
       </c>
       <c r="L164" s="11">
-        <v>240870</v>
+        <v>187161</v>
       </c>
       <c r="M164" s="11">
-        <v>187161</v>
+        <v>24931</v>
       </c>
       <c r="N164" s="11">
-        <v>24931</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>275001</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>27</v>
       </c>
@@ -6374,23 +6374,23 @@
       <c r="I165" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J165" s="9" t="s">
-        <v>23</v>
+      <c r="J165" s="9">
+        <v>0</v>
       </c>
       <c r="K165" s="9">
         <v>0</v>
       </c>
       <c r="L165" s="9">
-        <v>0</v>
+        <v>2018977</v>
       </c>
       <c r="M165" s="9">
-        <v>2018977</v>
+        <v>-30156</v>
       </c>
       <c r="N165" s="9">
-        <v>-30156</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2839</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>29</v>
       </c>
@@ -6399,37 +6399,37 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="F166" s="11">
-        <v>308</v>
+        <v>2562</v>
       </c>
       <c r="G166" s="11">
-        <v>2562</v>
+        <v>315</v>
       </c>
       <c r="H166" s="11">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="I166" s="11">
-        <v>278</v>
+        <v>481</v>
       </c>
       <c r="J166" s="11">
-        <v>481</v>
+        <v>3380</v>
       </c>
       <c r="K166" s="11">
-        <v>3380</v>
+        <v>802</v>
       </c>
       <c r="L166" s="11">
-        <v>802</v>
+        <v>468</v>
       </c>
       <c r="M166" s="11">
-        <v>468</v>
+        <v>376</v>
       </c>
       <c r="N166" s="11">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>30</v>
       </c>
@@ -6452,11 +6452,11 @@
       <c r="I167" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J167" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K167" s="9">
-        <v>0</v>
+      <c r="J167" s="9">
+        <v>0</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="L167" s="9" t="s">
         <v>23</v>
@@ -6468,7 +6468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>31</v>
       </c>
@@ -6491,11 +6491,11 @@
       <c r="I168" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J168" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K168" s="11">
-        <v>0</v>
+      <c r="J168" s="11">
+        <v>0</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L168" s="11" t="s">
         <v>23</v>
@@ -6507,7 +6507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>32</v>
       </c>
@@ -6516,37 +6516,37 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>58401</v>
+        <v>324063</v>
       </c>
       <c r="F169" s="9">
-        <v>324063</v>
+        <v>237132</v>
       </c>
       <c r="G169" s="9">
-        <v>237132</v>
+        <v>60213</v>
       </c>
       <c r="H169" s="9">
-        <v>60213</v>
+        <v>148180</v>
       </c>
       <c r="I169" s="9">
-        <v>148180</v>
+        <v>204732</v>
       </c>
       <c r="J169" s="9">
-        <v>204732</v>
+        <v>167273</v>
       </c>
       <c r="K169" s="9">
-        <v>167273</v>
+        <v>76216</v>
       </c>
       <c r="L169" s="9">
-        <v>76216</v>
+        <v>62004</v>
       </c>
       <c r="M169" s="9">
-        <v>62004</v>
+        <v>-16792</v>
       </c>
       <c r="N169" s="9">
-        <v>-16792</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>93538</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>33</v>
       </c>
@@ -6555,37 +6555,37 @@
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>24657</v>
+        <v>145356</v>
       </c>
       <c r="F170" s="11">
-        <v>145356</v>
+        <v>29766</v>
       </c>
       <c r="G170" s="11">
-        <v>29766</v>
+        <v>33496</v>
       </c>
       <c r="H170" s="11">
-        <v>33496</v>
+        <v>26419</v>
       </c>
       <c r="I170" s="11">
-        <v>26419</v>
+        <v>91864</v>
       </c>
       <c r="J170" s="11">
-        <v>91864</v>
+        <v>46549</v>
       </c>
       <c r="K170" s="11">
-        <v>46549</v>
+        <v>12986</v>
       </c>
       <c r="L170" s="11">
-        <v>12986</v>
+        <v>66681</v>
       </c>
       <c r="M170" s="11">
-        <v>66681</v>
+        <v>9371</v>
       </c>
       <c r="N170" s="11">
-        <v>9371</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>110218</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>34</v>
       </c>
@@ -6594,29 +6594,29 @@
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
-        <v>143826</v>
+        <v>276204</v>
       </c>
       <c r="F171" s="9">
-        <v>276204</v>
+        <v>306748</v>
       </c>
       <c r="G171" s="9">
-        <v>306748</v>
+        <v>2478</v>
       </c>
       <c r="H171" s="9">
-        <v>2478</v>
+        <v>243081</v>
       </c>
       <c r="I171" s="9">
-        <v>243081</v>
+        <v>274539</v>
       </c>
       <c r="J171" s="9">
-        <v>274539</v>
+        <v>297148</v>
       </c>
       <c r="K171" s="9">
-        <v>297148</v>
-      </c>
-      <c r="L171" s="9">
         <v>1445867</v>
       </c>
+      <c r="L171" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="M171" s="9" t="s">
         <v>23</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>35</v>
       </c>
@@ -6633,37 +6633,37 @@
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
-        <v>139464</v>
+        <v>644076</v>
       </c>
       <c r="F172" s="11">
-        <v>644076</v>
+        <v>714881</v>
       </c>
       <c r="G172" s="11">
-        <v>714881</v>
+        <v>921294</v>
       </c>
       <c r="H172" s="11">
-        <v>921294</v>
+        <v>1053292</v>
       </c>
       <c r="I172" s="11">
-        <v>1053292</v>
+        <v>1397390</v>
       </c>
       <c r="J172" s="11">
-        <v>1397390</v>
+        <v>1830005</v>
       </c>
       <c r="K172" s="11">
-        <v>1830005</v>
+        <v>3313461</v>
       </c>
       <c r="L172" s="11">
-        <v>3313461</v>
+        <v>1764967</v>
       </c>
       <c r="M172" s="11">
-        <v>1764967</v>
+        <v>593030</v>
       </c>
       <c r="N172" s="11">
-        <v>593030</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1700870</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>36</v>
       </c>
@@ -6683,11 +6683,11 @@
       <c r="H173" s="9">
         <v>0</v>
       </c>
-      <c r="I173" s="9">
-        <v>0</v>
-      </c>
-      <c r="J173" s="9" t="s">
-        <v>23</v>
+      <c r="I173" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J173" s="9">
+        <v>0</v>
       </c>
       <c r="K173" s="9">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>37</v>
       </c>
@@ -6725,14 +6725,14 @@
       <c r="I174" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J174" s="11" t="s">
-        <v>23</v>
+      <c r="J174" s="11">
+        <v>0</v>
       </c>
       <c r="K174" s="11">
         <v>0</v>
       </c>
-      <c r="L174" s="11">
-        <v>0</v>
+      <c r="L174" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M174" s="11" t="s">
         <v>23</v>
@@ -6741,7 +6741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>38</v>
       </c>
@@ -6764,14 +6764,14 @@
       <c r="I175" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J175" s="9" t="s">
-        <v>23</v>
+      <c r="J175" s="9">
+        <v>0</v>
       </c>
       <c r="K175" s="9">
         <v>0</v>
       </c>
-      <c r="L175" s="9">
-        <v>0</v>
+      <c r="L175" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="M175" s="9" t="s">
         <v>23</v>
@@ -6780,7 +6780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>40</v>
       </c>
@@ -6803,14 +6803,14 @@
       <c r="I176" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J176" s="11" t="s">
-        <v>23</v>
+      <c r="J176" s="11">
+        <v>0</v>
       </c>
       <c r="K176" s="11">
         <v>0</v>
       </c>
-      <c r="L176" s="11">
-        <v>0</v>
+      <c r="L176" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M176" s="11" t="s">
         <v>23</v>
@@ -6819,41 +6819,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13">
-        <v>16917773</v>
+        <v>46610954</v>
       </c>
       <c r="F177" s="13">
-        <v>46610954</v>
+        <v>64939416</v>
       </c>
       <c r="G177" s="13">
-        <v>64939416</v>
+        <v>55392694</v>
       </c>
       <c r="H177" s="13">
-        <v>55392694</v>
+        <v>42035615</v>
       </c>
       <c r="I177" s="13">
-        <v>42035615</v>
+        <v>56320972</v>
       </c>
       <c r="J177" s="13">
-        <v>56320972</v>
+        <v>102575270</v>
       </c>
       <c r="K177" s="13">
-        <v>102575270</v>
+        <v>141577443</v>
       </c>
       <c r="L177" s="13">
-        <v>141577443</v>
+        <v>139218357</v>
       </c>
       <c r="M177" s="13">
-        <v>139218357</v>
+        <v>35436936</v>
       </c>
       <c r="N177" s="13">
-        <v>35436936</v>
+        <v>78128680</v>
       </c>
     </row>
   </sheetData>
